--- a/Automation/runs/patient_web_run.xlsx
+++ b/Automation/runs/patient_web_run.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28615"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vahanmelikyan/Documents/workspace/heal-qa-automation/Automation/runs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6263" yWindow="1238" windowWidth="28823" windowHeight="14543" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4780" yWindow="1240" windowWidth="28820" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t>Execute</t>
   </si>
@@ -132,10 +137,6 @@
   </si>
   <si>
     <t>editProfile</t>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>baseUrl</t>
@@ -201,12 +202,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -221,13 +222,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -236,7 +237,7 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -244,21 +245,21 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -266,7 +267,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -348,14 +349,14 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="已访问的超链接" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -705,23 +706,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.46484375" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="36.1328125" customWidth="1"/>
+    <col min="5" max="5" width="36.1640625" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.65" thickBot="1">
+    <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -741,123 +742,123 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
         <v>50</v>
       </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" t="s">
-        <v>52</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
         <v>31</v>
@@ -874,22 +875,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.9"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.1328125" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.1328125" style="3"/>
+    <col min="3" max="3" width="12.1640625" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -897,7 +898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
@@ -905,15 +906,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -921,7 +922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -929,7 +930,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -937,9 +938,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="5" t="str">
         <f>IF(B8="QA",Configs!B2,IF(B8="DEV",Configs!B3,IF(B8="PROD",Configs!B4,"")))</f>
@@ -948,15 +949,15 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -964,7 +965,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -972,7 +973,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -980,111 +981,111 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
     </row>
   </sheetData>
@@ -1112,7 +1113,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Configs!$A$2:$A$10</xm:f>
           </x14:formula1>
@@ -1125,49 +1126,49 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B4" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Automation/runs/patient_web_run.xlsx
+++ b/Automation/runs/patient_web_run.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="1240" windowWidth="28820" windowHeight="14540"/>
+    <workbookView xWindow="4780" yWindow="1240" windowWidth="28820" windowHeight="14540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
     <sheet name="Parameters" sheetId="4" r:id="rId2"/>
     <sheet name="Configs" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -180,10 +180,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>patient.web.tests.LoginTest</t>
   </si>
   <si>
@@ -197,6 +193,9 @@
   </si>
   <si>
     <t>patient.web.tests.VisitTest</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -709,7 +708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -747,7 +746,7 @@
         <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -758,7 +757,7 @@
         <v>44</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
@@ -770,7 +769,7 @@
         <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -781,7 +780,7 @@
         <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -792,7 +791,7 @@
         <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
         <v>32</v>
@@ -803,10 +802,10 @@
         <v>44</v>
       </c>
       <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
         <v>49</v>
-      </c>
-      <c r="D7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -814,7 +813,7 @@
         <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
@@ -825,7 +824,7 @@
         <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
@@ -836,7 +835,7 @@
         <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -847,7 +846,7 @@
         <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
@@ -858,7 +857,7 @@
         <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
         <v>31</v>
@@ -878,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -986,7 +985,7 @@
         <v>42</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">

--- a/Automation/runs/patient_web_run.xlsx
+++ b/Automation/runs/patient_web_run.xlsx
@@ -106,9 +106,6 @@
     <t>@ondemand.saucelabs.com:443/wd/hub</t>
   </si>
   <si>
-    <t>local</t>
-  </si>
-  <si>
     <t>editPayments</t>
   </si>
   <si>
@@ -196,6 +193,9 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>remote</t>
   </si>
 </sst>
 </file>
@@ -743,21 +743,21 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
@@ -766,101 +766,101 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
         <v>48</v>
-      </c>
-      <c r="D7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -878,7 +878,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -902,7 +902,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -910,7 +910,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -918,7 +918,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -939,7 +939,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="5" t="str">
         <f>IF(B8="QA",Configs!B2,IF(B8="DEV",Configs!B3,IF(B8="PROD",Configs!B4,"")))</f>
@@ -950,10 +950,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -982,10 +982,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1140,34 +1140,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Automation/runs/patient_web_run.xlsx
+++ b/Automation/runs/patient_web_run.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vahanmelikyan/Documents/workspace/heal-qa-automation/Automation/runs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vahanmelikyan/Documents/heal/qa-automation/Automation/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -195,7 +195,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>remote</t>
+    <t>local</t>
   </si>
 </sst>
 </file>

--- a/Automation/runs/patient_web_run.xlsx
+++ b/Automation/runs/patient_web_run.xlsx
@@ -195,7 +195,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>local</t>
+    <t>remote</t>
   </si>
 </sst>
 </file>

--- a/Automation/runs/patient_web_run.xlsx
+++ b/Automation/runs/patient_web_run.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28702"/>
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t>Execute</t>
   </si>
@@ -169,33 +169,34 @@
     <t>ENV</t>
   </si>
   <si>
+    <t>patient.web.tests.LoginTest</t>
+  </si>
+  <si>
+    <t>patient.web.tests.PaymentsTest</t>
+  </si>
+  <si>
+    <t>patient.web.tests.ProfileTest</t>
+  </si>
+  <si>
+    <t>patient.web.tests.VisitTest</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Y</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>chrome</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>patient.web.tests.LoginTest</t>
-  </si>
-  <si>
-    <t>patient.web.tests.PaymentsTest</t>
-  </si>
-  <si>
-    <t>patient.web.tests.ProfileTest</t>
-  </si>
-  <si>
-    <t>addInsuranceToExistingpatient.web</t>
-  </si>
-  <si>
-    <t>patient.web.tests.VisitTest</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>local</t>
+  </si>
+  <si>
+    <t>remote</t>
+  </si>
+  <si>
+    <t>addInsuranceToExistingpatient</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>Windows 10</t>
   </si>
 </sst>
 </file>
@@ -709,7 +710,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -743,10 +744,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
         <v>43</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
       </c>
       <c r="D2" t="s">
         <v>25</v>
@@ -754,10 +755,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
@@ -766,10 +767,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -777,10 +778,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -788,10 +789,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
         <v>31</v>
@@ -799,21 +800,21 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
@@ -821,10 +822,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
@@ -832,10 +833,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
@@ -843,10 +844,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
@@ -854,10 +855,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
@@ -878,7 +879,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -902,7 +903,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -910,7 +911,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -918,6 +919,9 @@
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -985,7 +989,7 @@
         <v>41</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">

--- a/Automation/runs/patient_web_run.xlsx
+++ b/Automation/runs/patient_web_run.xlsx
@@ -193,10 +193,10 @@
     <t>addInsuranceToExistingpatient</t>
   </si>
   <si>
-    <t>IE</t>
-  </si>
-  <si>
     <t>Windows 10</t>
+  </si>
+  <si>
+    <t>chrome</t>
   </si>
 </sst>
 </file>
@@ -879,7 +879,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -911,7 +911,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -919,10 +919,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">

--- a/Automation/runs/patient_web_run.xlsx
+++ b/Automation/runs/patient_web_run.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
   <si>
     <t>Execute</t>
   </si>
@@ -187,16 +187,19 @@
     <t>Y</t>
   </si>
   <si>
-    <t>remote</t>
-  </si>
-  <si>
     <t>addInsuranceToExistingpatient</t>
   </si>
   <si>
-    <t>IE</t>
-  </si>
-  <si>
     <t>Windows 10</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>chrome</t>
   </si>
 </sst>
 </file>
@@ -710,7 +713,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -744,7 +747,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
         <v>43</v>
@@ -755,7 +758,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>43</v>
@@ -767,7 +770,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
         <v>44</v>
@@ -778,7 +781,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
@@ -789,7 +792,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
@@ -800,18 +803,18 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
         <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>46</v>
@@ -822,7 +825,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
@@ -833,7 +836,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
         <v>46</v>
@@ -844,7 +847,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
         <v>46</v>
@@ -879,7 +882,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -903,7 +906,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -911,7 +914,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -919,10 +922,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
